--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Monaco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5233,7 +5233,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6611,7 +6611,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19">
+  <conditionalFormatting sqref="G17 G22 G19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="87">
   <si>
     <t>Year</t>
   </si>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>FR</t>
-  </si>
-  <si>
-    <t>The coat of arms of Monaco</t>
   </si>
   <si>
     <t>-</t>
@@ -606,12 +603,6 @@
     <t>Obv: With mint symbol - Cornucopia</t>
   </si>
   <si>
-    <t>The seal of Monaco</t>
-  </si>
-  <si>
-    <t>The monogram of Prince Albert II</t>
-  </si>
-  <si>
     <t>Obv: Prince Rainier III and Prince Albert II</t>
   </si>
   <si>
@@ -631,6 +622,15 @@
   </si>
   <si>
     <t>Obv: With mint symbol - Cornucopia, positioning far from portrait</t>
+  </si>
+  <si>
+    <t>Obv: The coat of arms of Monaco</t>
+  </si>
+  <si>
+    <t>Obv: The seal of Monaco</t>
+  </si>
+  <si>
+    <t>Obv: The monogram of Prince Albert II</t>
   </si>
 </sst>
 </file>
@@ -940,15 +940,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1204,6 +1195,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1235,9 +1235,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="34"/>
+    <tableColumn id="2" name="Link" dataDxfId="33" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1508,11 +1508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1556,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -1571,19 +1571,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1598,22 +1598,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H21" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1626,20 +1626,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1652,22 +1654,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1679,22 +1681,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1706,22 +1708,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1733,20 +1735,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1758,20 +1762,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1783,22 +1789,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1810,20 +1816,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1835,22 +1843,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1862,20 +1870,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1887,22 +1897,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1914,22 +1924,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1941,20 +1951,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1966,20 +1978,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1991,22 +2005,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2018,20 +2032,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2043,20 +2059,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2070,7 +2088,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2087,7 +2105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2117,7 +2135,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="A1:E1048576"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2161,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -2176,19 +2194,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2204,22 +2222,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2232,20 +2250,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2257,22 +2277,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2284,22 +2304,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2311,22 +2331,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2338,20 +2358,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2363,20 +2385,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2388,22 +2412,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2415,20 +2439,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2440,22 +2466,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2467,20 +2493,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2492,22 +2520,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2519,22 +2547,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2546,20 +2574,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2571,20 +2601,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2596,22 +2628,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2623,20 +2655,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2648,20 +2682,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2675,7 +2711,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2692,7 +2728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2722,7 +2758,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15:E15"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2766,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -2781,19 +2817,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2809,22 +2845,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2837,20 +2873,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2862,22 +2900,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2889,22 +2927,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2916,22 +2954,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2943,20 +2981,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2968,20 +3008,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2993,22 +3035,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3020,20 +3062,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3045,22 +3089,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3072,20 +3116,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3097,22 +3143,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3124,22 +3170,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3151,20 +3197,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3176,20 +3224,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3201,22 +3251,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3228,20 +3278,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3253,20 +3305,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3280,7 +3334,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3297,7 +3351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3321,28 +3375,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:E1048576"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3362,7 +3416,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -3372,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -3382,24 +3436,24 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3409,24 +3463,24 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -3435,26 +3489,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -3463,299 +3517,299 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3767,22 +3821,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3794,22 +3848,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3821,22 +3875,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3848,22 +3902,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3875,22 +3929,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3904,653 +3958,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" ref="H6:H21" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4584,7 +3997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -4592,15 +4005,15 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:E2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
@@ -4622,8 +4035,8 @@
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>13</v>
+      <c r="G1" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -4637,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -4652,19 +4065,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4680,19 +4093,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4708,19 +4121,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4735,22 +4148,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H21" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -4762,22 +4175,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4789,22 +4202,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4816,22 +4229,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4843,22 +4256,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4870,22 +4283,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4897,22 +4310,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4924,22 +4337,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4951,22 +4364,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4978,22 +4391,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5005,22 +4418,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5032,22 +4445,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5059,22 +4472,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5086,22 +4499,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5113,22 +4526,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5140,22 +4553,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5225,22 +4638,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
@@ -5258,12 +4672,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -5277,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -5292,19 +4706,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5320,19 +4734,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -5341,7 +4755,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="13"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5349,19 +4762,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -5376,25 +4789,25 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H6:H21" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5403,22 +4816,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5429,23 +4842,23 @@
       <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>81</v>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5456,20 +4869,660 @@
       <c r="A9" s="9">
         <v>2007</v>
       </c>
+      <c r="B9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2007</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
@@ -5479,24 +5532,24 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2007</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -5506,162 +5559,162 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2008</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2010</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2012</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5673,19 +5726,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -5700,22 +5753,22 @@
         <v>2015</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5727,19 +5780,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -5754,22 +5807,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5781,19 +5834,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -5808,19 +5861,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -5837,7 +5890,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5854,7 +5907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5871,7 +5924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5888,7 +5941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5905,7 +5958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5922,7 +5975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5939,7 +5992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5956,7 +6009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5980,27 +6033,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -6020,7 +6074,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -6030,7 +6084,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>30</v>
@@ -6040,24 +6094,24 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6066,26 +6120,25 @@
         <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -6095,26 +6148,25 @@
         <v/>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -6124,159 +6176,159 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -6286,24 +6338,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -6313,51 +6365,51 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2010</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="26">
         <v>0</v>
@@ -6367,24 +6419,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2012</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -6394,27 +6446,27 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6426,19 +6478,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -6453,19 +6505,19 @@
         <v>2015</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="26">
         <v>0</v>
@@ -6480,19 +6532,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -6507,19 +6559,19 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="26">
         <v>0</v>
@@ -6534,19 +6586,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -6561,19 +6613,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -6590,7 +6642,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6607,7 +6659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G17 G19">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6624,7 +6676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6641,7 +6693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6658,7 +6710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6675,7 +6727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6692,7 +6744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6709,7 +6761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6726,7 +6778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6743,7 +6795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Monaco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B0757-00A6-4BF4-B00D-60972441666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1217E1-AE00-4B81-A829-90E34FF41028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -638,13 +647,31 @@
   </si>
   <si>
     <t>1.007.000</t>
+  </si>
+  <si>
+    <t>1.167.728</t>
+  </si>
+  <si>
+    <t>1.035.000</t>
+  </si>
+  <si>
+    <t>1.180.912</t>
+  </si>
+  <si>
+    <t>1.050.000</t>
+  </si>
+  <si>
+    <t>1.256.833</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -700,6 +727,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -945,7 +976,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -953,71 +984,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1275,6 +1241,167 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1306,9 +1433,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="53" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1577,27 +1704,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="A22:H22"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1744,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -1637,7 +1764,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
@@ -1664,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -1692,7 +1819,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
@@ -1720,7 +1847,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
@@ -1747,7 +1874,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
@@ -1774,7 +1901,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
@@ -1801,7 +1928,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
@@ -1828,7 +1955,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
@@ -1855,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
@@ -1882,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
@@ -1909,7 +2036,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
@@ -1936,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
@@ -1963,7 +2090,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2013</v>
       </c>
@@ -1990,7 +2117,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2014</v>
       </c>
@@ -2017,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2015</v>
       </c>
@@ -2044,7 +2171,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2016</v>
       </c>
@@ -2071,7 +2198,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2017</v>
       </c>
@@ -2098,7 +2225,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2018</v>
       </c>
@@ -2125,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2019</v>
       </c>
@@ -2152,7 +2279,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2020</v>
       </c>
@@ -2175,7 +2302,88 @@
         <v>31</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" ref="H22" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H22:H25" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2186,12 +2394,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2203,12 +2411,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2220,11 +2428,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2244,27 +2486,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:H22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2526,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -2304,7 +2546,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
@@ -2327,12 +2569,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -2360,7 +2602,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
@@ -2387,7 +2629,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
@@ -2414,7 +2656,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
@@ -2441,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
@@ -2468,7 +2710,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
@@ -2495,7 +2737,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
@@ -2522,7 +2764,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
@@ -2549,7 +2791,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
@@ -2576,7 +2818,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
@@ -2603,7 +2845,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
@@ -2630,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2013</v>
       </c>
@@ -2657,7 +2899,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2014</v>
       </c>
@@ -2684,7 +2926,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2015</v>
       </c>
@@ -2711,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2016</v>
       </c>
@@ -2738,7 +2980,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2017</v>
       </c>
@@ -2765,7 +3007,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2018</v>
       </c>
@@ -2792,7 +3034,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2019</v>
       </c>
@@ -2819,7 +3061,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2020</v>
       </c>
@@ -2842,6 +3084,87 @@
         <v>31</v>
       </c>
       <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2853,11 +3176,62 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2869,12 +3243,760 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:G21">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2886,12 +4008,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2909,29 +4048,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J22"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:H22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2942,16 +4082,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -2971,18 +4111,18 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>71</v>
@@ -2994,78 +4134,78 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H21" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>31</v>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>31</v>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>73</v>
@@ -3081,24 +4221,24 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>41</v>
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>31</v>
@@ -3108,18 +4248,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>73</v>
@@ -3135,7 +4275,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
@@ -3162,7 +4302,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
@@ -3189,18 +4329,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>73</v>
@@ -3216,7 +4356,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
@@ -3243,18 +4383,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>74</v>
@@ -3270,7 +4410,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
@@ -3297,18 +4437,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>74</v>
@@ -3324,18 +4464,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>74</v>
@@ -3351,7 +4491,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2015</v>
       </c>
@@ -3378,7 +4518,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2016</v>
       </c>
@@ -3405,18 +4545,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>74</v>
@@ -3432,7 +4572,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2018</v>
       </c>
@@ -3459,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2019</v>
       </c>
@@ -3486,18 +4626,18 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>74</v>
@@ -3509,7 +4649,88 @@
         <v>31</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H22:H25" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3520,11 +4741,62 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3536,12 +4808,778 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" ref="H6:H25" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3553,12 +5591,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3576,30 +5631,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I22"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:H22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3614,12 +5669,12 @@
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>9</v>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -3639,7 +5694,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
@@ -3662,11 +5717,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H21" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -3683,7 +5739,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -3692,9 +5748,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
@@ -3711,7 +5767,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -3720,9 +5776,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
@@ -3745,11 +5800,11 @@
         <v>31</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
@@ -3772,11 +5827,11 @@
         <v>31</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
@@ -3799,11 +5854,11 @@
         <v>31</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
@@ -3826,11 +5881,11 @@
         <v>31</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
@@ -3853,11 +5908,11 @@
         <v>31</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
@@ -3880,11 +5935,11 @@
         <v>31</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
@@ -3907,11 +5962,11 @@
         <v>31</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
@@ -3934,11 +5989,11 @@
         <v>31</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
@@ -3961,11 +6016,11 @@
         <v>31</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2013</v>
       </c>
@@ -3988,11 +6043,11 @@
         <v>31</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2014</v>
       </c>
@@ -4015,11 +6070,11 @@
         <v>31</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2015</v>
       </c>
@@ -4042,11 +6097,11 @@
         <v>31</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2016</v>
       </c>
@@ -4069,11 +6124,11 @@
         <v>31</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2017</v>
       </c>
@@ -4096,11 +6151,11 @@
         <v>31</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2018</v>
       </c>
@@ -4123,11 +6178,11 @@
         <v>31</v>
       </c>
       <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2019</v>
       </c>
@@ -4150,11 +6205,11 @@
         <v>31</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2020</v>
       </c>
@@ -4177,7 +6232,88 @@
         <v>31</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" ref="H22" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23:H25" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4187,12 +6323,80 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21">
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4204,29 +6408,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4244,30 +6431,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J22"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:H22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4278,16 +6465,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="E1" s="33"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>12</v>
+      <c r="G1" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -4307,12 +6494,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>76</v>
@@ -4324,7 +6511,7 @@
         <v>71</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4333,14 +6520,13 @@
         <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>76</v>
@@ -4352,7 +6538,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4361,14 +6547,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>76</v>
@@ -4380,7 +6566,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4390,12 +6576,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>76</v>
@@ -4417,7 +6603,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
@@ -4444,12 +6630,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>86</v>
+      <c r="B8" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>76</v>
@@ -4471,78 +6657,78 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>31</v>
+      <c r="B9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>2007</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>2008</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>31</v>
@@ -4552,24 +6738,24 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>2009</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>31</v>
@@ -4579,24 +6765,24 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>2010</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>31</v>
@@ -4606,24 +6792,24 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>2011</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>31</v>
@@ -4633,24 +6819,24 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>2012</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>31</v>
@@ -4660,12 +6846,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>2013</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>76</v>
@@ -4677,7 +6863,7 @@
         <v>74</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>31</v>
@@ -4687,36 +6873,36 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>2014</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>31</v>
@@ -4741,12 +6927,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>2016</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>76</v>
@@ -4757,35 +6943,35 @@
       <c r="E19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>31</v>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>2017</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>31</v>
@@ -4795,39 +6981,39 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>2018</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>2019</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>76</v>
@@ -4838,14 +7024,122 @@
       <c r="E22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>31</v>
+      <c r="F22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24:H26" si="3">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4855,1404 +7149,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G4:G5">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G21">
     <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="A23:H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" ref="H23" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6269,7 +7168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6286,7 +7185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6303,7 +7202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6320,7 +7219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6337,7 +7236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6354,7 +7253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6370,12 +7269,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G24 G26">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G22 G24 G26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6387,12 +7286,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6412,28 +7311,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +7352,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
@@ -6473,7 +7372,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
@@ -6500,7 +7399,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -6528,7 +7427,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
@@ -6555,7 +7454,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
@@ -6582,7 +7481,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
@@ -6609,7 +7508,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
@@ -6636,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
@@ -6663,7 +7562,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
@@ -6690,7 +7589,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
@@ -6717,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2009</v>
       </c>
@@ -6744,7 +7643,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2010</v>
       </c>
@@ -6771,7 +7670,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2011</v>
       </c>
@@ -6798,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2012</v>
       </c>
@@ -6825,7 +7724,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2013</v>
       </c>
@@ -6852,7 +7751,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2014</v>
       </c>
@@ -6879,7 +7778,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2015</v>
       </c>
@@ -6906,7 +7805,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2016</v>
       </c>
@@ -6933,7 +7832,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2017</v>
       </c>
@@ -6960,7 +7859,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2018</v>
       </c>
@@ -6987,7 +7886,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2019</v>
       </c>
@@ -7014,7 +7913,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2020</v>
       </c>
@@ -7038,6 +7937,87 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24:H26" si="1">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7047,8 +8027,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7064,12 +8045,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19">
+  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7082,7 +8063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7099,7 +8080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7116,7 +8097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7133,7 +8114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7150,7 +8131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7167,7 +8148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7184,7 +8165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7201,7 +8182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7217,12 +8198,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7251,14 +8232,14 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -7269,7 +8250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -7280,7 +8261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -7291,7 +8272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -7302,7 +8283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -7313,7 +8294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -7324,7 +8305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1217E1-AE00-4B81-A829-90E34FF41028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB75003-D1CF-4F8D-A6C9-BFF3A4324D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -977,6 +977,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="55">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1393,15 +1402,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1433,9 +1433,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="53" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1706,11 +1706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1729,18 +1729,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -1748,19 +1748,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1769,19 +1769,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H21" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1824,22 +1824,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1852,22 +1852,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1879,22 +1879,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1906,22 +1906,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1933,22 +1933,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1960,22 +1960,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1987,22 +1987,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2014,22 +2014,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2041,22 +2041,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2068,22 +2068,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2095,22 +2095,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2122,22 +2122,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2149,22 +2149,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2176,22 +2176,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2203,22 +2203,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2230,22 +2230,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2257,22 +2257,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2284,22 +2284,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ref="H22:H25" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2311,22 +2311,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2338,22 +2338,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2365,22 +2365,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2394,7 +2394,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2411,7 +2411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2428,7 +2428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,7 +2445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2462,7 +2462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2492,7 +2492,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2511,18 +2511,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -2530,19 +2530,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -2551,19 +2551,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2579,22 +2579,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2607,22 +2607,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2634,22 +2634,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2661,22 +2661,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2688,22 +2688,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2715,22 +2715,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2742,22 +2742,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2769,22 +2769,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2796,22 +2796,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2823,22 +2823,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2850,22 +2850,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2877,22 +2877,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2904,22 +2904,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2931,22 +2931,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2958,22 +2958,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2985,22 +2985,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3012,22 +3012,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3039,22 +3039,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3066,22 +3066,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3093,22 +3093,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3120,22 +3120,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3147,22 +3147,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3176,7 +3176,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3193,7 +3193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3210,7 +3210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3227,7 +3227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3244,7 +3244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3274,7 +3274,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3293,18 +3293,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -3312,19 +3312,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3333,19 +3333,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3361,22 +3361,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3389,22 +3389,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3416,22 +3416,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3443,22 +3443,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3470,22 +3470,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3497,22 +3497,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3524,22 +3524,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3551,22 +3551,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3578,22 +3578,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3605,22 +3605,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3632,22 +3632,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3659,22 +3659,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3686,22 +3686,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3713,22 +3713,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3740,22 +3740,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3767,22 +3767,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3794,22 +3794,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3821,22 +3821,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3848,22 +3848,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3875,22 +3875,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3902,22 +3902,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3929,22 +3929,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3958,7 +3958,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3975,7 +3975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3992,7 +3992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4009,7 +4009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4026,7 +4026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4056,7 +4056,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4076,18 +4076,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -4095,19 +4095,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4116,19 +4116,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4171,19 +4171,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4199,22 +4199,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4226,22 +4226,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4253,22 +4253,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4280,22 +4280,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4307,22 +4307,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4334,22 +4334,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4361,22 +4361,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4388,22 +4388,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4415,22 +4415,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4442,22 +4442,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4469,22 +4469,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4496,22 +4496,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4523,22 +4523,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4550,22 +4550,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4577,22 +4577,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4604,22 +4604,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4631,22 +4631,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ref="H22:H25" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
@@ -4658,22 +4658,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4685,22 +4685,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4712,22 +4712,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4741,7 +4741,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4758,7 +4758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4775,7 +4775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,7 +4792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,7 +4809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4839,7 +4839,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4859,18 +4859,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -4878,19 +4878,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4899,19 +4899,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4927,19 +4927,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4955,19 +4955,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4982,22 +4982,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H25" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -5009,22 +5009,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5036,22 +5036,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5063,22 +5063,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5090,22 +5090,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5117,22 +5117,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5144,22 +5144,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5171,22 +5171,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5198,22 +5198,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5225,22 +5225,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5252,22 +5252,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5279,22 +5279,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5306,22 +5306,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5333,22 +5333,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5360,22 +5360,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5387,22 +5387,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5414,22 +5414,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5441,22 +5441,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5468,22 +5468,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5495,22 +5495,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5524,7 +5524,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5541,7 +5541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,7 +5558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,7 +5575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5592,7 +5592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5609,7 +5609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5639,7 +5639,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:H25"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5659,18 +5659,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -5678,19 +5678,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5699,19 +5699,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5727,19 +5727,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -5755,19 +5755,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -5782,22 +5782,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -5809,22 +5809,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5836,22 +5836,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5863,22 +5863,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5890,22 +5890,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5917,22 +5917,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5944,22 +5944,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5971,22 +5971,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5998,22 +5998,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6025,22 +6025,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6052,22 +6052,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6079,22 +6079,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6106,22 +6106,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6133,22 +6133,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6160,22 +6160,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6187,22 +6187,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6214,22 +6214,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6241,22 +6241,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H25" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6268,22 +6268,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6295,22 +6295,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6324,7 +6324,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6341,7 +6341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6358,7 +6358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6375,7 +6375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6392,7 +6392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6409,7 +6409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6439,7 +6439,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24:F26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6459,18 +6459,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -6478,19 +6478,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6499,19 +6499,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -6554,19 +6554,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -6581,22 +6581,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -6608,22 +6608,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6635,22 +6635,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6662,19 +6662,19 @@
         <v>2007</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
@@ -6689,19 +6689,19 @@
         <v>2007</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -6716,22 +6716,22 @@
         <v>2008</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6743,22 +6743,22 @@
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6770,22 +6770,22 @@
         <v>2010</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6797,22 +6797,22 @@
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6824,22 +6824,22 @@
         <v>2012</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6851,22 +6851,22 @@
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6878,19 +6878,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -6905,22 +6905,22 @@
         <v>2015</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6932,19 +6932,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -6959,22 +6959,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6986,19 +6986,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -7013,19 +7013,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -7040,19 +7040,19 @@
         <v>2020</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="26">
         <v>0</v>
@@ -7067,19 +7067,19 @@
         <v>2021</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="26">
         <v>0</v>
@@ -7094,19 +7094,19 @@
         <v>2022</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="26">
         <v>0</v>
@@ -7121,19 +7121,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="26">
         <v>0</v>
@@ -7151,7 +7151,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7168,7 +7168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7185,7 +7185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7202,7 +7202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7219,7 +7219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7236,7 +7236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7253,7 +7253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7270,11 +7270,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G24 G26">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24 G26">
+  <conditionalFormatting sqref="G24 G22 G26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7287,11 +7287,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7313,11 +7313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7337,18 +7337,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -7356,19 +7356,19 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7377,19 +7377,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7404,19 +7404,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -7432,19 +7432,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -7459,22 +7459,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7486,22 +7486,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7513,22 +7513,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7540,22 +7540,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7567,22 +7567,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7594,19 +7594,19 @@
         <v>2009</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -7621,19 +7621,19 @@
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -7648,22 +7648,22 @@
         <v>2010</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7675,19 +7675,19 @@
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="26">
         <v>0</v>
@@ -7702,19 +7702,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -7729,22 +7729,22 @@
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7756,19 +7756,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -7783,19 +7783,19 @@
         <v>2015</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="26">
         <v>0</v>
@@ -7810,19 +7810,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -7837,19 +7837,19 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="26">
         <v>0</v>
@@ -7864,19 +7864,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -7891,19 +7891,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -7918,19 +7918,19 @@
         <v>2020</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="26">
         <v>0</v>
@@ -7945,19 +7945,19 @@
         <v>2021</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="26">
         <v>0</v>
@@ -7972,19 +7972,19 @@
         <v>2022</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="26">
         <v>0</v>
@@ -7999,19 +7999,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="26">
         <v>0</v>
@@ -8029,7 +8029,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8046,11 +8046,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G17 G19 G24 G26">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8063,7 +8063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8080,7 +8080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8097,7 +8097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8114,7 +8114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8131,7 +8131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8148,7 +8148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8165,7 +8165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8182,7 +8182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8199,11 +8199,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8241,13 +8241,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8255,10 +8255,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8266,10 +8266,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8277,10 +8277,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8288,10 +8288,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8299,10 +8299,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8310,10 +8310,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB75003-D1CF-4F8D-A6C9-BFF3A4324D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D9F3-770B-4863-B561-1AC6DF5C67A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -976,7 +976,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1433,9 +1449,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1706,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2394,7 +2410,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2411,7 +2427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="53" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2428,7 +2444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,7 +2461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2462,7 +2478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3176,7 +3192,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3193,7 +3209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3210,7 +3226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3227,7 +3243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3244,7 +3260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3958,7 +3974,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3975,7 +3991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3992,7 +4008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4009,7 +4025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4026,7 +4042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4741,7 +4757,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4758,7 +4774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4775,7 +4791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,7 +4808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,7 +4825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5524,7 +5540,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5541,7 +5557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,7 +5574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,7 +5591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5592,7 +5608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5609,7 +5625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,7 +6340,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6341,7 +6357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6358,7 +6374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6375,7 +6391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6392,7 +6408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6409,7 +6425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6433,13 +6449,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7085,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" ref="H24:H26" si="3">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H24:H27" si="3">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -7139,6 +7155,31 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7151,11 +7192,147 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24 G26">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24 G26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7167,131 +7344,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24 G26">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22 G26">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7311,13 +7369,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8021,6 +8079,31 @@
         <v/>
       </c>
     </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" ref="H27" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -8029,11 +8112,181 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 G20:G21">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21 G18">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G10 G13">
+    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G10 G13">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="6" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8045,165 +8298,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21 G18">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D9F3-770B-4863-B561-1AC6DF5C67A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D47168-7D63-484B-B9C5-B1A7D8D41F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -978,6 +978,15 @@
   </cellStyles>
   <dxfs count="57">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -992,15 +1001,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1449,9 +1449,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6455,7 +6455,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>77</v>
@@ -7315,7 +7315,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24 G26">
+  <conditionalFormatting sqref="G24 G22 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7332,7 +7332,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7345,7 +7345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7375,7 +7375,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8112,7 +8112,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8129,11 +8129,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G17 G19 G24 G26">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8146,7 +8146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8163,7 +8163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8180,7 +8180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8197,7 +8197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8214,7 +8214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8231,7 +8231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8248,7 +8248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8265,7 +8265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="6" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8282,11 +8282,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8299,7 +8299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D47168-7D63-484B-B9C5-B1A7D8D41F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D4B03-21EA-4784-9888-49D780CF6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="97">
   <si>
     <t>Year</t>
   </si>
@@ -387,12 +397,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -604,9 +608,6 @@
     <t>Obv: Mint director Symbol - Pentagon</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Obv: With mint symbol - Cornucopia</t>
   </si>
   <si>
@@ -665,6 +666,21 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -731,6 +747,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -955,6 +973,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,9 +986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1722,61 +1740,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1785,19 +1802,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1812,22 +1829,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H21" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1840,22 +1857,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1868,22 +1885,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1895,22 +1912,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1922,22 +1939,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1949,22 +1966,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1976,22 +1993,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2003,22 +2020,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2030,22 +2047,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2057,22 +2074,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2084,22 +2101,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2111,22 +2128,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2138,22 +2155,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2165,22 +2182,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2192,22 +2209,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2219,22 +2236,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2246,22 +2263,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2273,22 +2290,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2300,22 +2317,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ref="H22:H25" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2327,22 +2344,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2354,22 +2371,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2381,22 +2398,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2404,9 +2421,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
@@ -2508,57 +2525,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -2567,19 +2583,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2595,22 +2611,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2623,22 +2639,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2650,22 +2666,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2677,22 +2693,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2704,22 +2720,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2731,22 +2747,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2758,22 +2774,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2785,22 +2801,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2812,22 +2828,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2839,22 +2855,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2866,22 +2882,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2893,22 +2909,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2920,22 +2936,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2947,22 +2963,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2974,22 +2990,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3001,22 +3017,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3028,22 +3044,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3055,22 +3071,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3082,22 +3098,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3109,22 +3125,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3136,22 +3152,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3163,22 +3179,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3186,9 +3202,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
@@ -3290,57 +3306,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3349,19 +3364,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3377,22 +3392,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3405,22 +3420,22 @@
         <v>2003</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3432,22 +3447,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3459,22 +3474,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3486,22 +3501,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3513,22 +3528,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3540,22 +3555,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3567,22 +3582,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3594,22 +3609,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3621,22 +3636,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3648,22 +3663,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3675,22 +3690,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3702,22 +3717,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3729,22 +3744,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3756,22 +3771,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3783,22 +3798,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3810,22 +3825,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3837,22 +3852,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3864,22 +3879,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3891,22 +3906,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3918,22 +3933,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3945,22 +3960,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3968,9 +3983,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
@@ -4072,58 +4087,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4132,19 +4145,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4159,19 +4172,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4187,19 +4200,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4215,22 +4228,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4242,22 +4255,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4269,22 +4282,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4296,22 +4309,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4323,22 +4336,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4350,22 +4363,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4377,22 +4390,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4404,22 +4417,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4431,22 +4444,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4458,22 +4471,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4485,22 +4498,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4512,22 +4525,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4539,22 +4552,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4566,22 +4579,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4593,22 +4606,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4620,22 +4633,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4647,22 +4660,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ref="H22:H25" si="1">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
@@ -4674,22 +4687,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4701,22 +4714,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4728,22 +4741,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4751,9 +4764,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
@@ -4855,58 +4868,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4915,19 +4926,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -4943,19 +4954,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -4971,19 +4982,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -4998,22 +5009,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H25" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -5025,22 +5036,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5052,22 +5063,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5079,22 +5090,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5106,22 +5117,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5133,22 +5144,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5160,22 +5171,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5187,22 +5198,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5214,22 +5225,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5241,22 +5252,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5268,22 +5279,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5295,22 +5306,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5322,22 +5333,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5349,22 +5360,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5376,22 +5387,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5403,22 +5414,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5430,22 +5441,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5457,22 +5468,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5484,22 +5495,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5511,22 +5522,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5534,9 +5545,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
@@ -5655,58 +5666,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5715,19 +5724,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5743,19 +5752,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -5771,19 +5780,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -5798,22 +5807,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -5825,22 +5834,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5852,22 +5861,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5879,22 +5888,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5906,22 +5915,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5933,22 +5942,22 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5960,22 +5969,22 @@
         <v>2010</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5987,22 +5996,22 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6014,22 +6023,22 @@
         <v>2012</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6041,22 +6050,22 @@
         <v>2013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6068,22 +6077,22 @@
         <v>2014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6095,22 +6104,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6122,22 +6131,22 @@
         <v>2016</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6149,22 +6158,22 @@
         <v>2017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6176,22 +6185,22 @@
         <v>2018</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6203,22 +6212,22 @@
         <v>2019</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6230,22 +6239,22 @@
         <v>2020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6257,22 +6266,22 @@
         <v>2021</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23:H25" si="2">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
@@ -6284,22 +6293,22 @@
         <v>2022</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6311,22 +6320,22 @@
         <v>2023</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6334,9 +6343,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
@@ -6455,58 +6464,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6515,19 +6522,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -6542,19 +6549,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -6570,19 +6577,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -6597,22 +6604,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" ref="H6:H22" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
@@ -6624,22 +6631,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6651,22 +6658,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6678,19 +6685,19 @@
         <v>2007</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
@@ -6705,19 +6712,19 @@
         <v>2007</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -6732,22 +6739,22 @@
         <v>2008</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6759,22 +6766,22 @@
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6786,22 +6793,22 @@
         <v>2010</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6813,22 +6820,22 @@
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6840,22 +6847,22 @@
         <v>2012</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6867,22 +6874,22 @@
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6894,19 +6901,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -6921,22 +6928,22 @@
         <v>2015</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6948,19 +6955,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -6975,22 +6982,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7002,19 +7009,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -7029,19 +7036,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -7056,19 +7063,19 @@
         <v>2020</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" s="26">
         <v>0</v>
@@ -7083,19 +7090,19 @@
         <v>2021</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="26">
         <v>0</v>
@@ -7110,19 +7117,19 @@
         <v>2022</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="26">
         <v>0</v>
@@ -7137,19 +7144,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G26" s="26">
         <v>0</v>
@@ -7164,16 +7171,16 @@
         <v>2024</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="26">
@@ -7185,9 +7192,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -7315,7 +7322,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22 G26">
+  <conditionalFormatting sqref="G22 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7332,7 +7339,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7371,62 +7378,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -7435,19 +7440,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -7462,19 +7467,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -7490,19 +7495,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -7517,22 +7522,22 @@
         <v>2004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7544,22 +7549,22 @@
         <v>2005</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7571,22 +7576,22 @@
         <v>2006</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7598,22 +7603,22 @@
         <v>2007</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7625,22 +7630,22 @@
         <v>2008</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7652,19 +7657,19 @@
         <v>2009</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -7679,19 +7684,19 @@
         <v>2009</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -7706,22 +7711,22 @@
         <v>2010</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7733,19 +7738,19 @@
         <v>2011</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="26">
         <v>0</v>
@@ -7760,19 +7765,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -7787,22 +7792,22 @@
         <v>2013</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7814,19 +7819,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="26">
         <v>0</v>
@@ -7841,19 +7846,19 @@
         <v>2015</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="26">
         <v>0</v>
@@ -7868,19 +7873,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="26">
         <v>0</v>
@@ -7895,19 +7900,19 @@
         <v>2017</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="26">
         <v>0</v>
@@ -7922,19 +7927,19 @@
         <v>2018</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="26">
         <v>0</v>
@@ -7949,19 +7954,19 @@
         <v>2019</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="26">
         <v>0</v>
@@ -7976,19 +7981,19 @@
         <v>2020</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23" s="26">
         <v>0</v>
@@ -8003,19 +8008,19 @@
         <v>2021</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G24" s="26">
         <v>0</v>
@@ -8030,19 +8035,19 @@
         <v>2022</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G25" s="26">
         <v>0</v>
@@ -8057,19 +8062,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" s="26">
         <v>0</v>
@@ -8084,16 +8089,16 @@
         <v>2024</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="26">
@@ -8105,9 +8110,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8133,7 +8138,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
+  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8286,7 +8291,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8341,13 +8346,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8355,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8366,10 +8371,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8377,10 +8382,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8388,10 +8393,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8399,10 +8404,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8410,10 +8415,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
